--- a/test/data.xlsx
+++ b/test/data.xlsx
@@ -3,11 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="表格1" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
+  <calcPr/>
 </workbook>
 </file>
 
@@ -39,13 +41,17 @@
   <fonts count="1">
     <font>
       <name val="Calibri"/>
+      <color theme="1"/>
       <sz val="11.000000"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="1">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
@@ -58,19 +64,21 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -357,37 +365,211 @@
 </a:theme>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" name="">
+  <a:themeElements>
+    <a:clrScheme name="">
+      <a:dk1>
+        <a:srgbClr val="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:srgbClr val="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="">
+      <a:majorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface="Arial"/>
+        <a:cs typeface="Arial"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface="Arial"/>
+        <a:cs typeface="Arial"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill/>
+        <a:solidFill/>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+        <a:ln w="25400">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+        </a:ln>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:srgbClr val="000000"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:srgbClr val="000000"/>
+        </a:solidFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" zoomScale="100">
+      <selection activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="0" gridLines="0"/>
+  <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
+  <pageSetup blackAndWhite="0" cellComments="none" copies="1" draft="0" errors="displayed" firstPageNumber="-1" fitToHeight="1" fitToWidth="1" horizontalDpi="600" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="0" usePrinterDefaults="1" verticalDpi="600"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100">
+      <selection activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A0" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B0" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2">
-      <c r="A1" t="s">
+      <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3">
-      <c r="A2" t="s">
+      <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" t="s">
         <v>5</v>
       </c>
     </row>
   </sheetData>
+  <printOptions headings="0" gridLines="0"/>
+  <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
+  <pageSetup blackAndWhite="0" cellComments="none" copies="1" draft="0" errors="displayed" firstPageNumber="-1" fitToHeight="1" fitToWidth="1" horizontalDpi="600" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="0" usePrinterDefaults="1" verticalDpi="600"/>
+  <headerFooter/>
 </worksheet>
 </file>